--- a/datasets/transactions_11242022.xlsx
+++ b/datasets/transactions_11242022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="321">
   <si>
     <t>ID</t>
   </si>
@@ -965,7 +965,10 @@
     <t>editable</t>
   </si>
   <si>
-    <t>defaults</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>default_view</t>
   </si>
   <si>
     <t>str</t>
@@ -1019,7 +1022,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1106,6 +1109,17 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -1123,7 +1137,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1133,37 +1147,40 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1335,9 +1352,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1417,7 +1434,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1445,10 +1462,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1704,9 +1721,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1994,7 +2011,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2022,10 +2039,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -7875,14 +7892,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.1484" style="12" customWidth="1"/>
+    <col min="2" max="6" width="8.85156" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -7901,13 +7919,16 @@
       <c r="E1" t="s" s="13">
         <v>317</v>
       </c>
+      <c r="F1" t="s" s="14">
+        <v>318</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s" s="4">
         <v>0</v>
@@ -7918,13 +7939,16 @@
       <c r="E2" t="b" s="6">
         <v>0</v>
       </c>
+      <c r="F2" t="b" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s" s="10">
         <v>1</v>
@@ -7933,6 +7957,9 @@
         <v>0</v>
       </c>
       <c r="E3" t="b" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b" s="11">
         <v>0</v>
       </c>
     </row>
@@ -7941,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s" s="10">
         <v>2</v>
@@ -7950,6 +7977,9 @@
         <v>1</v>
       </c>
       <c r="E4" t="b" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b" s="11">
         <v>0</v>
       </c>
     </row>
@@ -7958,7 +7988,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s" s="10">
         <v>3</v>
@@ -7967,6 +7997,9 @@
         <v>1</v>
       </c>
       <c r="E5" t="b" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b" s="11">
         <v>1</v>
       </c>
     </row>
@@ -7975,7 +8008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s" s="10">
         <v>4</v>
@@ -7984,6 +8017,9 @@
         <v>1</v>
       </c>
       <c r="E6" t="b" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b" s="11">
         <v>0</v>
       </c>
     </row>
@@ -7992,7 +8028,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C7" t="s" s="10">
         <v>5</v>
@@ -8001,6 +8037,9 @@
         <v>1</v>
       </c>
       <c r="E7" t="b" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b" s="11">
         <v>1</v>
       </c>
     </row>
@@ -8009,7 +8048,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C8" t="s" s="10">
         <v>6</v>
@@ -8018,6 +8057,9 @@
         <v>1</v>
       </c>
       <c r="E8" t="b" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b" s="11">
         <v>0</v>
       </c>
     </row>
@@ -8026,7 +8068,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C9" t="s" s="10">
         <v>7</v>
@@ -8035,6 +8077,9 @@
         <v>1</v>
       </c>
       <c r="E9" t="b" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b" s="11">
         <v>0</v>
       </c>
     </row>
@@ -8043,7 +8088,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s" s="10">
         <v>8</v>
@@ -8052,6 +8097,9 @@
         <v>1</v>
       </c>
       <c r="E10" t="b" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b" s="11">
         <v>1</v>
       </c>
     </row>
@@ -8060,7 +8108,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s" s="10">
         <v>9</v>
@@ -8069,6 +8117,9 @@
         <v>1</v>
       </c>
       <c r="E11" t="b" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b" s="11">
         <v>0</v>
       </c>
     </row>
@@ -8077,15 +8128,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D12" t="b" s="11">
         <v>1</v>
       </c>
       <c r="E12" t="b" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b" s="11">
         <v>1</v>
       </c>
     </row>
@@ -8094,7 +8148,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s" s="10">
         <v>11</v>
@@ -8103,6 +8157,9 @@
         <v>1</v>
       </c>
       <c r="E13" t="b" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b" s="11">
         <v>1</v>
       </c>
     </row>
@@ -8111,7 +8168,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s" s="7">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s" s="10">
         <v>12</v>
@@ -8120,6 +8177,9 @@
         <v>1</v>
       </c>
       <c r="E14" t="b" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b" s="11">
         <v>1</v>
       </c>
     </row>
